--- a/ehdidata_2007to2021_cleaned20240131_description.xlsx
+++ b/ehdidata_2007to2021_cleaned20240131_description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaitan\Box\CPHSS\EHDI Seeser\Data\website_ready_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0BF6D5-F67F-441C-8BBF-57DDB41ECA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85BAF46-C19D-41D1-8B25-A4F69D879D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="-108" windowWidth="22020" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_description" sheetId="1" r:id="rId1"/>
@@ -223,15 +223,6 @@
     <t>Enrolled in EI (%)</t>
   </si>
   <si>
-    <t>Rate of loss to follow-up per 1000 screened</t>
-  </si>
-  <si>
-    <t>Rate of not pass the last screening test per 1000 screened</t>
-  </si>
-  <si>
-    <t>Knowing the number of infants diagnosed as not having hearing loss is important for program evaluation and resource allocation.</t>
-  </si>
-  <si>
     <t>Data used as reported to CDC.</t>
   </si>
   <si>
@@ -262,9 +253,6 @@
     <t>It was calculated using the formula Tscr / Birth * 100.</t>
   </si>
   <si>
-    <t xml:space="preserve">This metric highlights babies who are not a beneficiary of early hearing loss detection program. </t>
-  </si>
-  <si>
     <t>This metric can used as a measure of performance comparing states' and cities.</t>
   </si>
   <si>
@@ -346,9 +334,6 @@
     <t>Loss to Follow-Up Rate</t>
   </si>
   <si>
-    <t>Missing Out of System Rate</t>
-  </si>
-  <si>
     <t>Early Intervention Before 6 Months of Age Rate</t>
   </si>
   <si>
@@ -370,30 +355,12 @@
     <t>Referred to Outpatient Screening</t>
   </si>
   <si>
-    <t>Total Enrolled in EI</t>
-  </si>
-  <si>
-    <t>Total Enrolled in EI Before 6 Months of Age</t>
-  </si>
-  <si>
     <t>Referred Initial/Straight to Diagnostics Evaluation</t>
   </si>
   <si>
     <t>Loss to Follow-Up</t>
   </si>
   <si>
-    <t>Total Enrolled in EI Part C</t>
-  </si>
-  <si>
-    <t>Total Enrolled in EI Non-Part C</t>
-  </si>
-  <si>
-    <t>Total Enrolled in EI Part C Before 6 Months of Age</t>
-  </si>
-  <si>
-    <t>Total Enrolled in EI Non-Part C Before 6 Months of Age</t>
-  </si>
-  <si>
     <t>Total Hearing Loss Diagnosed Before 3 Months of Age</t>
   </si>
   <si>
@@ -406,9 +373,6 @@
     <t>It was calculated using the formula LTF / TotNotPas * 100.</t>
   </si>
   <si>
-    <t>Missing Out of System</t>
-  </si>
-  <si>
     <t>CLEAR</t>
   </si>
   <si>
@@ -418,9 +382,6 @@
     <t>It was calculated using the formula HL / (NHL + HL) * 100. Any missing value in the sum was ignored.</t>
   </si>
   <si>
-    <t>It was calculated using the formula ReInNoOut + ReInReOut + ReInPaOut + ReInStDia. Any missing value in the sum was ignored.</t>
-  </si>
-  <si>
     <t>It was calculated using the formula POS + NPOS. Any missing value in the sum was ignored.</t>
   </si>
   <si>
@@ -475,9 +436,6 @@
     <t xml:space="preserve">It was calculated using the formula EI6 / HL * 100. </t>
   </si>
   <si>
-    <t>This metric will help track those who missed out of the screening and diagnostic program.</t>
-  </si>
-  <si>
     <t>This age-stratified metric will help policy makers to intervene and address the hearing loss cases before 3 months of age.</t>
   </si>
   <si>
@@ -514,45 +472,18 @@
     <t>This metric gives an idea of states accounted for in the calculation.</t>
   </si>
   <si>
-    <t>This metric aids in determining the need for hearing loss intervention services, allowing decision-makers to allocate resources wisely.</t>
-  </si>
-  <si>
-    <t>This metric assists decision-makers in assessing the effectiveness of early intervention services for infants.</t>
-  </si>
-  <si>
     <t>This metric highlights the proportion of babies with hearing loss who are enrolled in intervention, providing insights into enrollment patterns.</t>
   </si>
   <si>
     <t>This metric enables decision-makers to evaluate the effectiveness of the early intervention program in achieving timely enrollments.</t>
   </si>
   <si>
-    <t>This metric serves as a key identifier for assessing the overall utilization of the early intervention program.</t>
-  </si>
-  <si>
-    <t>This metric serves as a key identifier for assessing the overall utilization of the early intervention program before 6 months of age.</t>
-  </si>
-  <si>
-    <t>Percentage of enrollment in early intervention out of total with hearing loss (Part C &amp; Non-part C)</t>
-  </si>
-  <si>
-    <t>Percentage of enrollment in early intervention before 6 months of age out of total with hearing loss (Part C &amp; Non-part C)</t>
-  </si>
-  <si>
     <t>Total enrollment in early intervention (Part C)</t>
   </si>
   <si>
-    <t>Total enrollment in early intervention (Non-part C)</t>
-  </si>
-  <si>
     <t>Total enrollment in early intervention before 6 months of age (Part C)</t>
   </si>
   <si>
-    <t>Rate of enrollment in early intervention per 1000 screened (Part C &amp; Non-part C)</t>
-  </si>
-  <si>
-    <t>Rate of enrollment in early intervention before 6 months of age per 1000 screened (Part C &amp; Non-part C)</t>
-  </si>
-  <si>
     <t>This metric aids in the equitable allocation of resources for early intervention within Part C.</t>
   </si>
   <si>
@@ -565,93 +496,9 @@
     <t>The enrollment numbers derived from this metric provide valuable insights for decision-makers to make informed choices regarding the age group of children to target.</t>
   </si>
   <si>
-    <t>Prevalence of hearing loss</t>
-  </si>
-  <si>
-    <t>Percentage of babies referred to outpatient out of not passed inpatient screening</t>
-  </si>
-  <si>
-    <t>Percentage of babies not passing inpatient screening out of screened</t>
-  </si>
-  <si>
-    <t>Percentage of babies referred directly to diagnostics out of not passed inpatient screening</t>
-  </si>
-  <si>
-    <t>Rate of not pass the screening and missed out on the screening and diagnostics per 1000 screened</t>
-  </si>
-  <si>
-    <t>Percentage of babies screened out of total births</t>
-  </si>
-  <si>
-    <t>Percentage of babies not screened out of total births</t>
-  </si>
-  <si>
-    <t>Percentage of actual outpatient screenings out of referred to outpatient</t>
-  </si>
-  <si>
-    <t>Percentage of babies not pass outpatient screening out of actual outpatient screened</t>
-  </si>
-  <si>
-    <t>Percentage of babies diagnosed with either hearing loss or no hearing loss out of not passed last screening</t>
-  </si>
-  <si>
     <t>Percentage of babies with hearing loss out of those diagnosed with either hearing loss or no hearing loss</t>
   </si>
   <si>
-    <t>Percentage of babies with hearing loss before 3 months of age out of hearing loss</t>
-  </si>
-  <si>
-    <t>Percentage of loss to follow-up out of not pass last screening test</t>
-  </si>
-  <si>
-    <t>Total babies who did not have inpatient screening and passed outpatient screening</t>
-  </si>
-  <si>
-    <t>Total babies who did not have inpatient screening and failed outpatient screening</t>
-  </si>
-  <si>
-    <t>Total babies who passed inpatient screening and outpatient screening both</t>
-  </si>
-  <si>
-    <t>Total babies who passed inpatient screening and failed outpatient screening</t>
-  </si>
-  <si>
-    <t>Total babies who passed inpatient screening and had no outpatient screening</t>
-  </si>
-  <si>
-    <t>Total babies who failed inpatient screening and had no outpatient screening</t>
-  </si>
-  <si>
-    <t>Total babies who failed inpatient screening and passed outpatient screening</t>
-  </si>
-  <si>
-    <t>Total babies who failed inpatient screening and failed outpatient screening</t>
-  </si>
-  <si>
-    <t>Total babies who failed inpatient screening and referred directly for diagnostic evaluation</t>
-  </si>
-  <si>
-    <t>Total babies who received a diagnosis, whether they failed or passed the screening</t>
-  </si>
-  <si>
-    <t>Total babies who failed their most recent screening</t>
-  </si>
-  <si>
-    <t>Total babies who have been diagnosed with hearing loss</t>
-  </si>
-  <si>
-    <t>Total babies who have been diagnosed as no hearing loss</t>
-  </si>
-  <si>
-    <t>Total babies who have been diagnosed with hearing loss before 3 months of age</t>
-  </si>
-  <si>
-    <t>Total babies who were lost to follow-up for various reasons</t>
-  </si>
-  <si>
-    <t>Total babies who did not pass the screening and missed out on the screening and diagnostics</t>
-  </si>
-  <si>
     <t>Total babies who did not pass outpatient screening</t>
   </si>
   <si>
@@ -670,18 +517,6 @@
     <t>This metric enables policymakers to analyze states with a burden of hearing loss cases needing attention.</t>
   </si>
   <si>
-    <t>This metric will help compare the rate of infants that have failed their last screening tests.</t>
-  </si>
-  <si>
-    <t>This metric assists decision-makers in focusing on babies who can be lost to follow-up, guiding investments and policy decisions.</t>
-  </si>
-  <si>
-    <t>This metric enables decision-makers to identify those not helped by the program due to various reasons, requiring further exploration.</t>
-  </si>
-  <si>
-    <t>This metric helps calculate the efficiency of the screening program.</t>
-  </si>
-  <si>
     <t>This metric helps identify babies needing outpatient screening and requires special attention.</t>
   </si>
   <si>
@@ -715,9 +550,6 @@
     <t>This metric highlights babies that did not pass inpatient screening, it represents babies who failed two screenings and thus are more likely to have a higher percentage of babies who will be found to have hearing loss upon diagnosis.</t>
   </si>
   <si>
-    <t>This metric enables decision-makers to figure out those not accounted for by diagnosis and loss to follow-up.</t>
-  </si>
-  <si>
     <t>This metric keeps track of the program load and resouce allocation.</t>
   </si>
   <si>
@@ -733,15 +565,6 @@
     <t xml:space="preserve"> This metric enables decision makers to make informed decisions based on this metric, as it highlights children who need attention, guiding resource allocation and program improvements.</t>
   </si>
   <si>
-    <t>Rate of diagnosis (hearing loss or no hearing loss) per 1000 screened</t>
-  </si>
-  <si>
-    <t>Total babies who did not go through the EHDI process</t>
-  </si>
-  <si>
-    <t>Total babies who have inpatient and/or outpatient screening</t>
-  </si>
-  <si>
     <t>Total enrollment in early intervention (Part C &amp; Non-Part C)</t>
   </si>
   <si>
@@ -751,32 +574,209 @@
     <t>Total enrollment in early intervention before 6 months of age (Non-Part C)</t>
   </si>
   <si>
-    <t>Total babies who passed their final/most recent screening (Inpatient/outpatient)</t>
-  </si>
-  <si>
-    <t>This metric represents the key kids in the EHDI program who have failed their last screening and are ready for diagnostics. (specify inpatient or outpatient )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This gives an idea of what was the last screening done and what was the turnout. (they a who passed their last screening inpatient/outpatient and they do not go to diagnostics and thery are determined as no hearing loss ) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Total babies who did not pass inpatient screening </t>
   </si>
   <si>
-    <t xml:space="preserve">Total births reported to EHDI program </t>
-  </si>
-  <si>
     <t>It was calculated using the formula CLEAR / Tscr * 1000.</t>
   </si>
   <si>
     <t>Data from years 2007 through 2021</t>
+  </si>
+  <si>
+    <t>Cleared Out of System Rate</t>
+  </si>
+  <si>
+    <t>Cleared Out of System</t>
+  </si>
+  <si>
+    <t>Total Enrolled in EI (Part C &amp; Non-Part C)</t>
+  </si>
+  <si>
+    <t>Total Enrolled in EI Before 6 Months of Age (Part C &amp; Non-Part C)</t>
+  </si>
+  <si>
+    <t>Total Enrolled in EI (Part C)</t>
+  </si>
+  <si>
+    <t>Total Enrolled in EI (Non-Part C)</t>
+  </si>
+  <si>
+    <t>Total Enrolled in EI Before 6 Months of Age (Part C)</t>
+  </si>
+  <si>
+    <t>Total Enrolled in EI Before 6 Months of Age (Non-Part C)</t>
+  </si>
+  <si>
+    <t>Prevalence of permanent hearing loss</t>
+  </si>
+  <si>
+    <t>Rate of babies who did not pass their final/most recent screening (inpatient/outpatient) per 1000 screened</t>
+  </si>
+  <si>
+    <t>Rate of babies who were lost to follow-up after not passing their screening, and documented as one of three reasons (parents/family contacted but unresponsive, unable to contact or unknown status) per 1000 screened</t>
+  </si>
+  <si>
+    <t>Rate of babies cleared out of the EHDI system after not passing last/final screening (did not undergo diagnostics but unaccounted for as lost to follow-up) per 1000 screened</t>
+  </si>
+  <si>
+    <t>Rate of diagnosis (no hearing loss, transient hearing loss, or permanent hearing loss) per 1000 screened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate of enrollment in early intervention (Part C &amp; Non-Part C) per 1000 screened </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate of enrollment in early intervention before 6 months of age (Part C &amp; Non-Part C) per 1000 screened </t>
+  </si>
+  <si>
+    <t>Percentage of babies who entered the EHDI program (had inpatient and/or outpatient screening) out of total births reported to the EHDI Program</t>
+  </si>
+  <si>
+    <t>Percentage of babies not screened out of total births reported</t>
+  </si>
+  <si>
+    <t>Percentage of babies who did not pass inpatient screening out of total babies screened</t>
+  </si>
+  <si>
+    <t>Percentage of babies referred to outpatient screening out of those who did not pass their inpatient screening</t>
+  </si>
+  <si>
+    <t>Percentage of babies referred directly to diagnostics out of those who did not pass their inpatient screening</t>
+  </si>
+  <si>
+    <t>Percentage of actual outpatient screenings (documented as pass/fail) out of those who were referred to outpatient screening</t>
+  </si>
+  <si>
+    <t>Percentage of babies who did not pass their outpatient screening out of those who were outpatient screened</t>
+  </si>
+  <si>
+    <t>Percentage of babies with documented loss to follow-up out of those who did not pass their final/most recent screening test</t>
+  </si>
+  <si>
+    <t>Percentage of babies diagnosed with either hearing loss or no hearing loss out of those tho did not pass their last/final screening</t>
+  </si>
+  <si>
+    <t>Percentage of babies diagnosed with hearing loss before 3 months of age out of total with hearing loss</t>
+  </si>
+  <si>
+    <t>Percentage of enrollment in early intervention out of total with hearing loss (Part C &amp; Non-Part C)</t>
+  </si>
+  <si>
+    <t>Percentage of enrollment in early intervention before 6 months of age out of total with hearing loss (Part C &amp; Non-Part C)</t>
+  </si>
+  <si>
+    <t>Total babies cleared out of the EHDI system after not passing last/final screening (did not undergo diagnostics but unaccounted for as lost to follow-up)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total births reported to the EHDI program </t>
+  </si>
+  <si>
+    <t>Total babies who entered the EHDI program (had inpatient and/or outpatient screening)</t>
+  </si>
+  <si>
+    <t>Total babies who did enter the EHDI program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total babies who did not receive an initial screening, missed an initial screening, or refused an initial screening, and passed the outpatient screening </t>
+  </si>
+  <si>
+    <t>Total babies who did not receive an initial screening, missed an initial screening, or refused an initial screening, and did not pass the outpatient screening</t>
+  </si>
+  <si>
+    <t>Total babies who passed the initial screening and passed the outpatient screening both</t>
+  </si>
+  <si>
+    <t>Total babies who passed the initial screening and did not pass the outpatient screening</t>
+  </si>
+  <si>
+    <t>Total babies who passed the initial screening and, did not receive an outpatient screening, missed an outpatient screening or refused an outpatient screening</t>
+  </si>
+  <si>
+    <t>Total babies who did not pass the initial screening and did not receive an outpatient screening, missed an outpatient screening, or refused an outpatient screening</t>
+  </si>
+  <si>
+    <t>Total babies who did not pass the initial screening and passed the outpatient screening</t>
+  </si>
+  <si>
+    <t>Total babies who did not pass the initial screening and did not pass the outpatient screening</t>
+  </si>
+  <si>
+    <t>Total babies who failed inpatient hearing screening and referred directly for diagnostic evaluation</t>
+  </si>
+  <si>
+    <t>Total babies who passed their final/most recent screening (inpatient/outpatient)</t>
+  </si>
+  <si>
+    <t>Total babies who did not pass their final/most recent screening (inpatient/outpatient)</t>
+  </si>
+  <si>
+    <t>Total babies who were lost to follow-up after not passing their screening, and documented as one of three reasons (parents/family contacted but unresponsive, unable to contact or unknown status)</t>
+  </si>
+  <si>
+    <t>Total babies who received a diagnosis either no hearing loss, transient hearing loss, or permanent hearing loss</t>
+  </si>
+  <si>
+    <t>Total babies who have been diagnosed with permanent hearing loss</t>
+  </si>
+  <si>
+    <t>Total babies who have been diagnosed as having normal hearing or transient hearing loss</t>
+  </si>
+  <si>
+    <t>Total babies who have been diagnosed with permanent hearing loss before 3 months of age</t>
+  </si>
+  <si>
+    <t>Total enrollment in early intervention (Non-Part C)</t>
+  </si>
+  <si>
+    <t>This metric will help audiologists and researchers compare the rate of babies that have failed their most recent/last screening tests.</t>
+  </si>
+  <si>
+    <t>This metric  serves as a valuable tool for decision-makers to identify and address the specific reasons behind the loss of babies in the EHDI program, allowing for targeted interventions to improve follow-up rates.</t>
+  </si>
+  <si>
+    <t>This metric directs decision-makers attention to individuals at a higher risk of permanent hearing loss who have not been identified in the EHDI program's screening and diagnostics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This metric aids in determining the enrollment into early intervention, allowing decision-makers to allocate resources wisely. Additionally, this metric can also be utilized as a reference point for permanent hearing loss cases. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This metric aids in determining the enrollment into early intervention before 6 months of age, helping policymakers to determine the resource distribution. Additionally, this metric can also be utilized as a reference point for permanent hearing loss cases. </t>
+  </si>
+  <si>
+    <t>This metric helps calculate the reach of the EHDI program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This metric highlights babies who are not a beneficiary of the EHDI program. </t>
+  </si>
+  <si>
+    <t>This metric direct decision-makers' attention to individuals at a higher risk of permanent hearing loss who have not been identified in the EHDI program's screening and diagnostics.</t>
+  </si>
+  <si>
+    <t>This metric serves as a key identifier for assessing the overall enrollement into the early intervention.</t>
+  </si>
+  <si>
+    <t>This metric serves as a key identifier for assessing the overall enrollment into the early intervention before 6 months of age.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This gives an idea of the most recent/final screening and its turnout. (These babies passed their most recent/final screening inpatient/outpatient and they do not go to diagnostics and are determined as having no hearing loss ) </t>
+  </si>
+  <si>
+    <t>This metric represents the key babies in the EHDI program who have failed their most recent/final screening and are ready for diagnostics. (Inpatient and/or outpatient)</t>
+  </si>
+  <si>
+    <t>This metric will help track those who were lost to follow for the screening and diagnostics and help decision makers to focus on improving the enrollment.</t>
+  </si>
+  <si>
+    <t>Knowing the number of babies diagnosed as not having hearing loss is important for program evaluation and resource allocation.</t>
+  </si>
+  <si>
+    <t>It was calculated using the formula ReInNoOut + ReInReOut + ReInPaOut + ReInStDia. Any missing value in the sum was ignored, with the exception of when only one value was available; in these cases, NPIS is reported as missing or NA.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,6 +795,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -820,6 +821,13 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -866,25 +874,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -922,10 +930,10 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Source Sans Pro"/>
-        <scheme val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -934,16 +942,30 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFDADADA"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFDADADA"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1023,10 +1045,10 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Source Sans Pro"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1035,30 +1057,16 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFDADADA"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDADADA"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1074,19 +1082,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E54" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E54" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D54">
     <sortCondition ref="A2:A54"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Variable" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Variable Abbreviation" dataDxfId="5" dataCellStyle="Heading 3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Definition" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Decision Maker Takeaway" dataDxfId="3" dataCellStyle="Heading 3"/>
-    <tableColumn id="9" xr3:uid="{D24A6EAA-80CC-4792-BAE3-486205319F6D}" name="Formula" dataDxfId="2" dataCellStyle="Heading 3">
-      <calculatedColumnFormula array="1">IFELSE(ISBLANK(#REF!)=TRUE,"Data used as reported to CDC.","It was calculated using the formula"&amp;#REF!)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Variable" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Variable Abbreviation" dataDxfId="1" dataCellStyle="Heading 3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Definition" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Decision Maker Takeaway" dataDxfId="4" dataCellStyle="Heading 3"/>
+    <tableColumn id="9" xr3:uid="{D24A6EAA-80CC-4792-BAE3-486205319F6D}" name="Formula" dataDxfId="3" dataCellStyle="Heading 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1398,7 +1404,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" style="11" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
@@ -1409,7 +1415,7 @@
     <col min="7" max="16384" width="32.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="27">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="135">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -1434,14 +1440,14 @@
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" s="10" customFormat="1">
+    <row r="3" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -1449,269 +1455,269 @@
         <v>6</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" ht="45">
+    <row r="4" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="10" customFormat="1" ht="30">
+    </row>
+    <row r="8" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="10" customFormat="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="10" customFormat="1" ht="45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="10" customFormat="1" ht="45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>35</v>
       </c>
@@ -1719,50 +1725,50 @@
         <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="10" customFormat="1" ht="45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>61</v>
       </c>
@@ -1770,220 +1776,220 @@
         <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="10" customFormat="1" ht="45">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="10" customFormat="1" ht="60">
+        <v>168</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="10" customFormat="1" ht="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="10" customFormat="1" ht="60">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="10" customFormat="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="10" customFormat="1" ht="45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -1991,16 +1997,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="10" customFormat="1" ht="45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
@@ -2008,16 +2014,16 @@
         <v>10</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
@@ -2025,16 +2031,16 @@
         <v>14</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -2042,16 +2048,16 @@
         <v>16</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="10" customFormat="1" ht="45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
@@ -2059,33 +2065,33 @@
         <v>12</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -2093,16 +2099,16 @@
         <v>19</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>20</v>
       </c>
@@ -2110,223 +2116,224 @@
         <v>21</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="10" customFormat="1" ht="60">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>240</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="10" customFormat="1" ht="45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="10" customFormat="1" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="10" customFormat="1" ht="45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="60">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A54:D54">
     <sortCondition ref="A54"/>
   </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
